--- a/backend/JDSpiders/Motherboard/motherboard.xlsx
+++ b/backend/JDSpiders/Motherboard/motherboard.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3529" uniqueCount="1452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3541" uniqueCount="1453">
   <si>
     <t>id</t>
   </si>
@@ -4369,6 +4369,9 @@
   </si>
   <si>
     <t>{"主体": {"品牌": "铭瑄（Maxsun）", "型号": "MS-里程碑 B460M", "平台类型": "Intel平台"}, "内存": {"DDR代数": "DDR4", "内存插槽": "2 x ddr4内存插槽", "内存标准": "DDR4 2133；DDR4 2200；DDR4 2400；DDR4 2666；DDR4 2800", "最大内存容量": "32GB"}, "扩展PCI": {"PCI 插槽": "0个", "PCI Express x1": "1个", "PCI Express x4": "1个", "PCI Express x16": "1个"}, "支持CPU": {"兼容系列": "Intel 10代 CPU", "接口类型": "INTEL LGA1200"}, "芯片组": {"集成显卡": "否"}, "后置接口": {"USB": "6 x USB接口", "PS/2": "1 x PS/2键盘接口，1 x PS/2鼠标接口", "HDMI接口": "1 x HDMI接口", "音频接口": "3 x 3.5mm接口", "RJ 45网络接口": "1 x RJ45接口"}, "存储设备": {"IDE": "无", "SATA": "6个", "RAID支持": "RAID 0，RAID 1，RAID 5，RAID 10"}, "板载声卡": {"声道数": "5.1声道", "声卡类型": "Realtek ALC662"}, "板载接口": {"COM扩展接口": "1组", "CPU风扇插座": "1组", "USB扩展接口": "3组", "系统风扇插座": "1组"}, "板载网卡": {"网卡类型": "Realtek RTL8111", "最大网络速度": "10M/100M/1000M"}, "物理规格": {"板型大小": "245*190（mm）", "电源接口": "24+8"}}</t>
+  </si>
+  <si>
+    <t>2300+</t>
   </si>
 </sst>
 </file>
@@ -4412,7 +4415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M294"/>
+  <dimension ref="A1:M295"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -16469,6 +16472,47 @@
         <v>1451</v>
       </c>
     </row>
+    <row r="295">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>952</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D295" t="s">
+        <v>15</v>
+      </c>
+      <c r="E295" t="s">
+        <v>16</v>
+      </c>
+      <c r="F295" t="s">
+        <v>953</v>
+      </c>
+      <c r="G295" t="s">
+        <v>954</v>
+      </c>
+      <c r="H295" t="s">
+        <v>19</v>
+      </c>
+      <c r="I295" t="s">
+        <v>55</v>
+      </c>
+      <c r="J295" t="s">
+        <v>21</v>
+      </c>
+      <c r="K295" t="s">
+        <v>22</v>
+      </c>
+      <c r="L295" t="s">
+        <v>955</v>
+      </c>
+      <c r="M295" t="s">
+        <v>956</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>